--- a/biology/Botanique/Stahlianthus/Stahlianthus.xlsx
+++ b/biology/Botanique/Stahlianthus/Stahlianthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stahlianthus est un genre de sept espèces de plantes herbacées de la famille des Zingiberaceae qui poussent de l'Est de l'Himalaya à la Chine du Sud et en Asie du Sud-Est continentale (Indochine).
-La première description du genre Stahlianthus a été faite en 1891 par Carl Ernst Otto Kuntze dans son ouvrage Revisio Generum Plantarum[1], décrivant Stahlianthus campanulatus.
+La première description du genre Stahlianthus a été faite en 1891 par Carl Ernst Otto Kuntze dans son ouvrage Revisio Generum Plantarum, décrivant Stahlianthus campanulatus.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 sept 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 sept 2011) :
 Stahlianthus andersonii (Baker) Craib ex Loes. (1930).   Myanmar
 Stahlianthus campanulatus Kuntze, (1891).   Indo-Chine (Thailande Vietnam)
 Stahlianthus involucratus (King ex Baker) Craib ex Loes. (1930). Darjeeling à Chine du Sud
@@ -549,9 +563,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 sept 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 sept 2011) :
 Stahlianthus rubromarginatus S.Q.Tong,(1995)= Kaempferia parviflora Wall. ex Baker (1890).</t>
         </is>
       </c>
